--- a/src/Excel/hotelDatas.xlsx
+++ b/src/Excel/hotelDatas.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\eclipse-workspace\Task\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\git bilaal\TaskBilaal\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
+    <sheet name="blue" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>userName</t>
   </si>
@@ -134,13 +135,46 @@
     <t>VISA</t>
   </si>
   <si>
-    <t>DO9HL63ZI9</t>
-  </si>
-  <si>
     <t>8F2E6QEAE0</t>
   </si>
   <si>
     <t>0NC7J44AO5</t>
+  </si>
+  <si>
+    <t>ZUOGZ5G7RR</t>
+  </si>
+  <si>
+    <t>224I9654DF</t>
+  </si>
+  <si>
+    <t>LUH15B730E</t>
+  </si>
+  <si>
+    <t>01EF2N5E51</t>
+  </si>
+  <si>
+    <t>7D5850A1DO</t>
+  </si>
+  <si>
+    <t>W94800B6E7</t>
+  </si>
+  <si>
+    <t>BGJ4G7J95F</t>
+  </si>
+  <si>
+    <t>Q56H8OQ267</t>
+  </si>
+  <si>
+    <t>R86RJ36H6Z</t>
+  </si>
+  <si>
+    <t>8F7V3542TF</t>
+  </si>
+  <si>
+    <t>996Z7WKYOG</t>
+  </si>
+  <si>
+    <t>5IRJ9Q6797</t>
   </si>
 </sst>
 </file>
@@ -462,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -590,10 +624,10 @@
         <v>1234</v>
       </c>
       <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
@@ -613,6 +647,26 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2">
+      <c r="I2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
